--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssks_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssks_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769C62F9-204F-47CD-B330-033F0D86C90B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B3747-EDEF-4D18-B503-4485A54E35A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="29010" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,6 +863,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -870,9 +876,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,9 +891,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY557"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -1510,66 +1510,66 @@
       <c r="B2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="48" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="48" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="48" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="48" t="s">
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="52"/>
       <c r="AY2" s="21" t="s">
         <v>53</v>
       </c>
@@ -1586,10 +1586,10 @@
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="7" t="s">
         <v>57</v>
       </c>
@@ -1599,52 +1599,52 @@
       <c r="J3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="51" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="48" t="s">
         <v>58</v>
       </c>
       <c r="N3" s="58"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="53"/>
+      <c r="P3" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="52"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="51" t="s">
+      <c r="V3" s="53"/>
+      <c r="W3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="56" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="52"/>
+      <c r="Z3" s="53"/>
       <c r="AA3" s="7" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="57" t="s">
         <v>64</v>
       </c>
       <c r="AD3" s="58"/>
       <c r="AE3" s="58"/>
       <c r="AF3" s="58"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="51" t="s">
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="48" t="s">
         <v>65</v>
       </c>
       <c r="AI3" s="58"/>
@@ -1652,7 +1652,7 @@
       <c r="AK3" s="58"/>
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
-      <c r="AN3" s="52"/>
+      <c r="AN3" s="53"/>
       <c r="AO3" s="7" t="s">
         <v>112</v>
       </c>
@@ -1677,10 +1677,10 @@
       <c r="AV3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AW3" s="51" t="s">
+      <c r="AW3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="AX3" s="57"/>
+      <c r="AX3" s="49"/>
       <c r="AY3" s="34"/>
     </row>
     <row r="4" spans="1:51" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6381,6 +6381,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="U3:V3"/>
@@ -6397,9 +6398,8 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="Y3:Z3"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -6409,6 +6409,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6417,57 +6421,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -6659,7 +6613,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76690F-8A23-45F3-AC2B-ADA60E406AB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F25B32D-FD26-4105-AE41-4DDE11D43643}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6667,23 +6675,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76690F-8A23-45F3-AC2B-ADA60E406AB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5608CC1-62E8-40C3-93D3-D4A0440D7ADA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CD9C34-55B9-46DF-94B7-6C19782F39DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6700,4 +6692,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5608CC1-62E8-40C3-93D3-D4A0440D7ADA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssks_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssks_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\PlanPro\PlanPro-Wzk-60.18.0\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C114D90-3923-4088-9E8A-46DDAB013705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C706E-3728-446F-8EEA-BFDDA5EC72FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ssks_Beispielbefüllung" sheetId="2" r:id="rId1"/>
@@ -428,7 +428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -475,19 +475,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -500,39 +487,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -605,115 +559,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -721,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -738,52 +625,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -792,52 +661,31 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -849,37 +697,46 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1258,650 +1115,650 @@
   <dimension ref="A1:AY557"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="6" style="22" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="5.26953125" style="22" customWidth="1"/>
-    <col min="11" max="12" width="7" style="23" customWidth="1"/>
-    <col min="13" max="15" width="5.26953125" style="22" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" style="22" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" style="22" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" style="22" customWidth="1"/>
-    <col min="20" max="20" width="6.7265625" style="23" customWidth="1"/>
-    <col min="21" max="21" width="3.54296875" style="22" customWidth="1"/>
-    <col min="22" max="22" width="5.7265625" style="22" customWidth="1"/>
-    <col min="23" max="23" width="13.08984375" style="22" customWidth="1"/>
-    <col min="24" max="24" width="5.81640625" style="22" customWidth="1"/>
-    <col min="25" max="25" width="7.81640625" style="22" customWidth="1"/>
-    <col min="26" max="26" width="6.81640625" style="22" customWidth="1"/>
-    <col min="27" max="27" width="8.54296875" style="22" customWidth="1"/>
-    <col min="28" max="28" width="6.7265625" style="22" customWidth="1"/>
-    <col min="29" max="31" width="4.26953125" style="22" customWidth="1"/>
-    <col min="32" max="32" width="4.7265625" style="22" customWidth="1"/>
-    <col min="33" max="39" width="4.26953125" style="22" customWidth="1"/>
-    <col min="40" max="41" width="8.54296875" style="22" customWidth="1"/>
-    <col min="42" max="42" width="7.26953125" style="22" customWidth="1"/>
-    <col min="43" max="43" width="13.26953125" style="22" customWidth="1"/>
-    <col min="44" max="44" width="8.453125" style="22" customWidth="1"/>
-    <col min="45" max="46" width="7.1796875" style="22" customWidth="1"/>
-    <col min="47" max="47" width="6.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.1796875" style="22" customWidth="1"/>
-    <col min="49" max="49" width="4.7265625" style="22" customWidth="1"/>
-    <col min="50" max="50" width="6.26953125" style="22" customWidth="1"/>
-    <col min="51" max="51" width="45" style="25" customWidth="1"/>
-    <col min="52" max="16384" width="1.54296875" style="22"/>
+    <col min="1" max="1" width="3.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="6" style="16" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="16" customWidth="1"/>
+    <col min="11" max="12" width="7" style="17" customWidth="1"/>
+    <col min="13" max="15" width="5.28515625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="17" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="16" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="16" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" style="16" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="16" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" style="16" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" style="16" customWidth="1"/>
+    <col min="29" max="31" width="4.28515625" style="16" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" style="16" customWidth="1"/>
+    <col min="33" max="39" width="4.28515625" style="16" customWidth="1"/>
+    <col min="40" max="41" width="8.5703125" style="16" customWidth="1"/>
+    <col min="42" max="42" width="7.28515625" style="16" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" style="16" customWidth="1"/>
+    <col min="44" max="44" width="8.42578125" style="16" customWidth="1"/>
+    <col min="45" max="46" width="7.140625" style="16" customWidth="1"/>
+    <col min="47" max="47" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.140625" style="16" customWidth="1"/>
+    <col min="49" max="49" width="4.7109375" style="16" customWidth="1"/>
+    <col min="50" max="50" width="6.28515625" style="16" customWidth="1"/>
+    <col min="51" max="51" width="45" style="19" customWidth="1"/>
+    <col min="52" max="16384" width="1.5703125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:51" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AN1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AP1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AR1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AS1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AT1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AU1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AV1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AW1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AX1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="AY1" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:51" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="48" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="48" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="48" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="48" t="s">
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="20" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:51" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46" t="s">
+      <c r="L3" s="35"/>
+      <c r="M3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="43" t="s">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="35"/>
+      <c r="T3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="U3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="46" t="s">
+      <c r="V3" s="35"/>
+      <c r="W3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="43" t="s">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="6" t="s">
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" s="43" t="s">
+      <c r="AC3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46" t="s">
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="6" t="s">
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AR3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AU3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AW3" s="46" t="s">
+      <c r="AW3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="31"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="25"/>
     </row>
-    <row r="4" spans="1:51" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="32"/>
+    <row r="4" spans="1:51" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="35" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="11" t="s">
+      <c r="T4" s="26"/>
+      <c r="U4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AM4" s="9" t="s">
         <v>87</v>
       </c>
       <c r="AN4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11" t="s">
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11" t="s">
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AX4" s="11" t="s">
+      <c r="AX4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AY4" s="24"/>
+      <c r="AY4" s="18"/>
     </row>
-    <row r="5" spans="1:51" s="4" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
+    <row r="5" spans="1:51" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="27" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19" t="s">
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="18" t="s">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="30"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="24"/>
     </row>
-    <row r="6" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="36"/>
+    <row r="6" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="32"/>
     </row>
-    <row r="7" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
+    <row r="7" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="41"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="42"/>
+      <c r="X7" s="29"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -1928,619 +1785,614 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
-      <c r="AY7" s="40"/>
+      <c r="AY7" s="27"/>
     </row>
-    <row r="8" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="AY8" s="22"/>
+    <row r="8" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="AY8" s="16"/>
     </row>
-    <row r="9" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="AY9" s="22"/>
+    <row r="9" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="AY9" s="16"/>
     </row>
-    <row r="10" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="AY10" s="22"/>
+    <row r="10" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="AY10" s="16"/>
     </row>
-    <row r="11" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="AY11" s="22"/>
+    <row r="11" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="AY11" s="16"/>
     </row>
-    <row r="12" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="AY12" s="22"/>
+    <row r="12" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="AY12" s="16"/>
     </row>
-    <row r="13" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="AY13" s="22"/>
+    <row r="13" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="AY13" s="16"/>
     </row>
-    <row r="14" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="AY14" s="22"/>
+    <row r="14" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="AY14" s="16"/>
     </row>
-    <row r="15" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="AY15" s="22"/>
+    <row r="15" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="AY15" s="16"/>
     </row>
-    <row r="16" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="AY16" s="22"/>
+    <row r="16" spans="1:51" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="AY16" s="16"/>
     </row>
-    <row r="17" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="22" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="C2:E2"/>
@@ -2553,6 +2405,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -2564,19 +2421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2768,6 +2612,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -2815,22 +2672,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76690F-8A23-45F3-AC2B-ADA60E406AB9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F25B32D-FD26-4105-AE41-4DDE11D43643}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CD9C34-55B9-46DF-94B7-6C19782F39DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2849,6 +2690,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F25B32D-FD26-4105-AE41-4DDE11D43643}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76690F-8A23-45F3-AC2B-ADA60E406AB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5608CC1-62E8-40C3-93D3-D4A0440D7ADA}">
   <ds:schemaRefs>
